--- a/Instance Validation/gallbladder_cancer.xlsx
+++ b/Instance Validation/gallbladder_cancer.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="drug-gene" sheetId="1" r:id="rId1"/>
-    <sheet name="gene-disease" sheetId="2" r:id="rId2"/>
-    <sheet name="disease-drug" sheetId="3" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="drug-gene" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="gene-disease" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="disease-drug" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="58">
   <si>
     <t>Rank</t>
   </si>
@@ -39,57 +39,57 @@
     <t>Metformin</t>
   </si>
   <si>
+    <t>00331</t>
+  </si>
+  <si>
+    <t>BTC</t>
+  </si>
+  <si>
+    <t>685</t>
+  </si>
+  <si>
     <t>Emodin</t>
   </si>
   <si>
+    <t>07715</t>
+  </si>
+  <si>
+    <t>Sorafenib</t>
+  </si>
+  <si>
+    <t>00398</t>
+  </si>
+  <si>
     <t>Gemcitabine</t>
   </si>
   <si>
-    <t>Sorafenib</t>
+    <t>00441</t>
+  </si>
+  <si>
+    <t>PRKAA1</t>
+  </si>
+  <si>
+    <t>5562</t>
   </si>
   <si>
     <t>Celecoxib</t>
   </si>
   <si>
-    <t>00331</t>
-  </si>
-  <si>
-    <t>07715</t>
-  </si>
-  <si>
-    <t>00441</t>
-  </si>
-  <si>
-    <t>00398</t>
-  </si>
-  <si>
     <t>00482</t>
   </si>
   <si>
-    <t>BTC</t>
-  </si>
-  <si>
-    <t>HCC</t>
-  </si>
-  <si>
-    <t>PRKAA1</t>
-  </si>
-  <si>
     <t>TCEAL1</t>
   </si>
   <si>
-    <t>685</t>
-  </si>
-  <si>
-    <t>619501</t>
-  </si>
-  <si>
-    <t>5562</t>
-  </si>
-  <si>
     <t>9338</t>
   </si>
   <si>
+    <t>Nivolumab</t>
+  </si>
+  <si>
+    <t>06132</t>
+  </si>
+  <si>
     <t>Disease-Name</t>
   </si>
   <si>
@@ -99,123 +99,119 @@
     <t>NOTCH3</t>
   </si>
   <si>
+    <t>4854</t>
+  </si>
+  <si>
+    <t>BLOOD GROUP--SCIANNA SYSTEM</t>
+  </si>
+  <si>
+    <t>111750</t>
+  </si>
+  <si>
     <t>PEG10</t>
   </si>
   <si>
+    <t>23089</t>
+  </si>
+  <si>
     <t>PRKDC</t>
   </si>
   <si>
+    <t>5591</t>
+  </si>
+  <si>
     <t>MUC5AC</t>
   </si>
   <si>
+    <t>4586</t>
+  </si>
+  <si>
+    <t>COLORECTAL CANCER</t>
+  </si>
+  <si>
+    <t>114500</t>
+  </si>
+  <si>
     <t>KRAS</t>
   </si>
   <si>
+    <t>3845</t>
+  </si>
+  <si>
     <t>THY1</t>
   </si>
   <si>
+    <t>7070</t>
+  </si>
+  <si>
     <t>ITGA6</t>
   </si>
   <si>
+    <t>3655</t>
+  </si>
+  <si>
     <t>CFL1</t>
   </si>
   <si>
+    <t>1072</t>
+  </si>
+  <si>
     <t>HTATIP2</t>
   </si>
   <si>
+    <t>10553</t>
+  </si>
+  <si>
     <t>MINCR</t>
   </si>
   <si>
-    <t>4854</t>
-  </si>
-  <si>
-    <t>23089</t>
-  </si>
-  <si>
-    <t>5591</t>
-  </si>
-  <si>
-    <t>4586</t>
-  </si>
-  <si>
-    <t>3845</t>
-  </si>
-  <si>
-    <t>7070</t>
-  </si>
-  <si>
-    <t>3655</t>
-  </si>
-  <si>
-    <t>1072</t>
-  </si>
-  <si>
-    <t>10553</t>
-  </si>
-  <si>
     <t>100507316</t>
   </si>
   <si>
-    <t>BLOOD GROUP--SCIANNA SYSTEM</t>
-  </si>
-  <si>
-    <t>COLORECTAL CANCER</t>
-  </si>
-  <si>
     <t>HEPATOCELLULAR CARCINOMA</t>
   </si>
   <si>
-    <t>111750</t>
-  </si>
-  <si>
-    <t>114500</t>
-  </si>
-  <si>
     <t>114550</t>
   </si>
   <si>
+    <t>N-acetylsulfanilyl chloride</t>
+  </si>
+  <si>
+    <t>12337</t>
+  </si>
+  <si>
+    <t>Cisplatin</t>
+  </si>
+  <si>
+    <t>00515</t>
+  </si>
+  <si>
     <t>CHOLANGITIS, PRIMARY SCLEROSING</t>
   </si>
   <si>
     <t>613806</t>
-  </si>
-  <si>
-    <t>N-acetylsulfanilyl chloride</t>
-  </si>
-  <si>
-    <t>Cisplatin</t>
-  </si>
-  <si>
-    <t>12337</t>
-  </si>
-  <si>
-    <t>00515</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -230,18 +226,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
@@ -249,15 +237,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
@@ -546,12 +533,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
@@ -574,137 +567,143 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2">
-        <v>25</v>
-      </c>
-      <c r="B2">
+      <c r="A2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B2" t="n">
         <v>1.83</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
       </c>
       <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="n">
+        <v>23</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1.767</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
         <v>11</v>
       </c>
-      <c r="E2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3">
-        <v>26</v>
-      </c>
-      <c r="B3">
-        <v>1.767</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="n">
+        <v>24</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="C4" t="s">
         <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4">
-        <v>27</v>
-      </c>
-      <c r="B4">
-        <v>1.747</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
       </c>
       <c r="D4" t="s">
         <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5">
-        <v>28</v>
-      </c>
-      <c r="B5">
-        <v>1.57</v>
+      <c r="A5" t="n">
+        <v>26</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1.387</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E5" t="s">
         <v>16</v>
       </c>
       <c r="F5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="n">
+        <v>27</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1.192</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6">
-        <v>30</v>
-      </c>
-      <c r="B6">
-        <v>1.387</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="F6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="n">
+        <v>28</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" t="s">
         <v>8</v>
       </c>
-      <c r="D6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7">
-        <v>31</v>
-      </c>
-      <c r="B7">
-        <v>1.192</v>
-      </c>
-      <c r="C7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" t="s">
-        <v>19</v>
-      </c>
       <c r="F7" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
@@ -727,217 +726,223 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2">
+      <c r="A2" t="n">
         <v>35</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="n">
         <v>4.349</v>
       </c>
       <c r="C2" t="s">
         <v>26</v>
       </c>
       <c r="D2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="n">
+        <v>76</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2.809</v>
+      </c>
+      <c r="C3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="n">
+        <v>77</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2.654</v>
+      </c>
+      <c r="C4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="n">
+        <v>78</v>
+      </c>
+      <c r="B5" t="n">
+        <v>2.595</v>
+      </c>
+      <c r="C5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" t="s">
         <v>36</v>
       </c>
-      <c r="E2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3">
-        <v>76</v>
-      </c>
-      <c r="B3">
-        <v>2.809</v>
-      </c>
-      <c r="C3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="F5" t="s">
         <v>37</v>
       </c>
-      <c r="E3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4">
-        <v>77</v>
-      </c>
-      <c r="B4">
-        <v>2.654</v>
-      </c>
-      <c r="C4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" t="s">
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="n">
+        <v>82</v>
+      </c>
+      <c r="B6" t="n">
+        <v>2.383</v>
+      </c>
+      <c r="C6" t="s">
         <v>38</v>
       </c>
-      <c r="E4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5">
-        <v>78</v>
-      </c>
-      <c r="B5">
-        <v>2.595</v>
-      </c>
-      <c r="C5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="D6" t="s">
         <v>39</v>
       </c>
-      <c r="E5" t="s">
-        <v>47</v>
-      </c>
-      <c r="F5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6">
-        <v>83</v>
-      </c>
-      <c r="B6">
-        <v>2.383</v>
-      </c>
-      <c r="C6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="n">
+        <v>84</v>
+      </c>
+      <c r="B7" t="n">
+        <v>2.165</v>
+      </c>
+      <c r="C7" t="s">
         <v>40</v>
-      </c>
-      <c r="E6" t="s">
-        <v>47</v>
-      </c>
-      <c r="F6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7">
-        <v>85</v>
-      </c>
-      <c r="B7">
-        <v>2.165</v>
-      </c>
-      <c r="C7" t="s">
-        <v>31</v>
       </c>
       <c r="D7" t="s">
         <v>41</v>
       </c>
       <c r="E7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="n">
+        <v>85</v>
+      </c>
+      <c r="B8" t="n">
+        <v>2.125</v>
+      </c>
+      <c r="C8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="n">
+        <v>88</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1.978</v>
+      </c>
+      <c r="C9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="n">
+        <v>89</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1.852</v>
+      </c>
+      <c r="C10" t="s">
         <v>46</v>
       </c>
-      <c r="F7" t="s">
+      <c r="D10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="n">
+        <v>90</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1.817</v>
+      </c>
+      <c r="C11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8">
-        <v>86</v>
-      </c>
-      <c r="B8">
-        <v>2.125</v>
-      </c>
-      <c r="C8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E8" t="s">
-        <v>46</v>
-      </c>
-      <c r="F8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9">
-        <v>89</v>
-      </c>
-      <c r="B9">
-        <v>1.978</v>
-      </c>
-      <c r="C9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" t="s">
-        <v>43</v>
-      </c>
-      <c r="E9" t="s">
-        <v>46</v>
-      </c>
-      <c r="F9" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10">
-        <v>90</v>
-      </c>
-      <c r="B10">
-        <v>1.852</v>
-      </c>
-      <c r="C10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" t="s">
-        <v>44</v>
-      </c>
-      <c r="E10" t="s">
-        <v>46</v>
-      </c>
-      <c r="F10" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11">
-        <v>91</v>
-      </c>
-      <c r="B11">
-        <v>1.817</v>
-      </c>
-      <c r="C11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" t="s">
-        <v>45</v>
-      </c>
       <c r="E11" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F11" t="s">
         <v>51</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
@@ -960,66 +965,66 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2">
+      <c r="A2" t="n">
         <v>9</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="n">
         <v>2.316</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="n">
+        <v>10</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1.091</v>
+      </c>
+      <c r="C3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" t="s">
         <v>54</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="n">
+        <v>13</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.394</v>
+      </c>
+      <c r="C4" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3">
-        <v>10</v>
-      </c>
-      <c r="B3">
-        <v>1.091</v>
-      </c>
-      <c r="C3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="D4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F4" t="s">
         <v>55</v>
       </c>
-      <c r="F3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4">
-        <v>13</v>
-      </c>
-      <c r="B4">
-        <v>0.394</v>
-      </c>
-      <c r="C4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E4" t="s">
-        <v>55</v>
-      </c>
-      <c r="F4" t="s">
-        <v>57</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>